--- a/va_facility_data_2025-02-20/Jack C. Montgomery Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Jack%20C.%20Montgomery%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jack C. Montgomery Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Jack%20C.%20Montgomery%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rd93236cf39fd4483ad641f03d0e573cd"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R59bddcf4ee944f7caecaf1801e833162"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R99616e4844de4e408a72600f641c5f95"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R8f8befe3114c4453bf6926c81ffc71f4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rabbfe1b9c26b402f8b678f960126fd4a"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Re6d02f678c7246c997855b1dde549a1c"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R3e36901be4134dc4aa73583cc0829382"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rcd36c45472984d348bb9c8f76cab32e8"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R95f56866ff744ed495df9a202ced9c87"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R97388980130d40869c60d6c8f3c15cbd"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rc43647aef4ff41d6ac669e08e46197f0"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R40ac471cd08f4268857bc2ab471a5622"/>
   </x:sheets>
 </x:workbook>
 </file>
